--- a/Results/Results_with_RobustRankAggreg_Package_Ranking_Strategy/UCEC/miRcorrNet Results/UCEC_mRNA_miRcorrNet_res1.xlsx
+++ b/Results/Results_with_RobustRankAggreg_Package_Ranking_Strategy/UCEC/miRcorrNet Results/UCEC_mRNA_miRcorrNet_res1.xlsx
@@ -173,58 +173,58 @@
         <v>10.0</v>
       </c>
       <c r="B2" t="n">
-        <v>390.12000000000006</v>
+        <v>384.09000000000003</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9814285714285712</v>
+        <v>0.9742857142857142</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9649999999999999</v>
+        <v>0.9399999999999993</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9880000000000002</v>
+        <v>0.9880000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9646666666666666</v>
+        <v>0.9542087542087544</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9989999999999998</v>
+        <v>0.9979999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9649999999999999</v>
+        <v>0.9399999999999993</v>
       </c>
       <c r="I2" t="n">
-        <v>0.98</v>
+        <v>0.9797979797979798</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9529156010230174</v>
+        <v>0.9305626598465471</v>
       </c>
       <c r="K2" t="n">
-        <v>195.03096257680824</v>
+        <v>205.77118286331955</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04828538128423627</v>
+        <v>0.05877888856275234</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1282161999881213</v>
+        <v>0.1780931546050317</v>
       </c>
       <c r="N2" t="n">
-        <v>0.04773665131518991</v>
+        <v>0.04773665131519141</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1282161999881213</v>
+        <v>0.1780931546050317</v>
       </c>
       <c r="P2" t="n">
-        <v>0.079561085525313</v>
+        <v>0.07994019615852753</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.09497119889486738</v>
+        <v>0.10802135702432011</v>
       </c>
       <c r="R2" t="n">
-        <v>0.12394698866175635</v>
+        <v>0.16724484273754414</v>
       </c>
       <c r="S2" t="n">
-        <v>0.009999999999993731</v>
+        <v>0.014070529413622775</v>
       </c>
       <c r="T2" t="n">
         <v>9.0</v>
@@ -240,58 +240,58 @@
         <v>9.0</v>
       </c>
       <c r="B3" t="n">
-        <v>351.86999999999995</v>
+        <v>348.5400000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9814285714285712</v>
+        <v>0.9728571428571425</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9649999999999999</v>
+        <v>0.9399999999999995</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9880000000000002</v>
+        <v>0.9860000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9646666666666666</v>
+        <v>0.9460000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9989999999999998</v>
+        <v>0.9979999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9649999999999999</v>
+        <v>0.9399999999999995</v>
       </c>
       <c r="I3" t="n">
-        <v>0.98</v>
+        <v>0.9766666666666667</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9529156010230174</v>
+        <v>0.9292838874680304</v>
       </c>
       <c r="K3" t="n">
-        <v>186.56716260268357</v>
+        <v>191.4755790531455</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04828538128423627</v>
+        <v>0.056325320629098084</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1282161999881213</v>
+        <v>0.16329931618554522</v>
       </c>
       <c r="N3" t="n">
-        <v>0.04773665131518991</v>
+        <v>0.05128647999525317</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1282161999881213</v>
+        <v>0.16329931618554522</v>
       </c>
       <c r="P3" t="n">
-        <v>0.079561085525313</v>
+        <v>0.0854774666587465</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.09497119889486738</v>
+        <v>0.11554584263763874</v>
       </c>
       <c r="R3" t="n">
-        <v>0.12394698866175635</v>
+        <v>0.14849134973506964</v>
       </c>
       <c r="S3" t="n">
-        <v>0.009999999999993731</v>
+        <v>0.014070529413622775</v>
       </c>
       <c r="T3" t="n">
         <v>8.0</v>
@@ -307,58 +307,58 @@
         <v>8.0</v>
       </c>
       <c r="B4" t="n">
-        <v>313.16999999999985</v>
+        <v>308.0600000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9799999999999999</v>
+        <v>0.9742857142857142</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9599999999999996</v>
+        <v>0.9399999999999997</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9880000000000002</v>
+        <v>0.9880000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9616666666666661</v>
+        <v>0.954208754208754</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9979999999999999</v>
+        <v>0.9969999999999997</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9599999999999996</v>
+        <v>0.9399999999999997</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9783333333333332</v>
+        <v>0.9797979797979798</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9489590792838871</v>
+        <v>0.9305626598465473</v>
       </c>
       <c r="K4" t="n">
-        <v>179.83039456132215</v>
+        <v>175.2514972053799</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05379822123950169</v>
+        <v>0.05877888856275234</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1363299621721455</v>
+        <v>0.1780931546050317</v>
       </c>
       <c r="N4" t="n">
-        <v>0.04773665131518991</v>
+        <v>0.04773665131519141</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1363299621721455</v>
+        <v>0.1780931546050317</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0875370692682335</v>
+        <v>0.07994019615852753</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.10448688155700951</v>
+        <v>0.10802135702431945</v>
       </c>
       <c r="R4" t="n">
-        <v>0.13778447701550256</v>
+        <v>0.167244842737545</v>
       </c>
       <c r="S4" t="n">
-        <v>0.014070529413632977</v>
+        <v>0.017144660799776435</v>
       </c>
       <c r="T4" t="n">
         <v>7.0</v>
@@ -374,58 +374,58 @@
         <v>7.0</v>
       </c>
       <c r="B5" t="n">
-        <v>272.62000000000006</v>
+        <v>271.5700000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9771428571428568</v>
+        <v>0.9714285714285711</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9549999999999997</v>
+        <v>0.9399999999999997</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9859999999999999</v>
+        <v>0.9839999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9563333333333331</v>
+        <v>0.9505050505050504</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9979999999999999</v>
+        <v>0.9969999999999997</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9549999999999997</v>
+        <v>0.9399999999999997</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9750000000000001</v>
+        <v>0.9713804713804717</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9417979539641943</v>
+        <v>0.924636828644501</v>
       </c>
       <c r="K5" t="n">
-        <v>171.47080795225168</v>
+        <v>162.56965904006822</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05641674305678028</v>
+        <v>0.06420951071078772</v>
       </c>
       <c r="M5" t="n">
-        <v>0.14381174563233065</v>
+        <v>0.1780931546050317</v>
       </c>
       <c r="N5" t="n">
-        <v>0.05128647999525037</v>
+        <v>0.054531984868860406</v>
       </c>
       <c r="O5" t="n">
-        <v>0.14381174563233065</v>
+        <v>0.1780931546050317</v>
       </c>
       <c r="P5" t="n">
-        <v>0.09288673817045161</v>
+        <v>0.09828577208032914</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.10955424426039152</v>
+        <v>0.11461892262280252</v>
       </c>
       <c r="R5" t="n">
-        <v>0.14436972608831647</v>
+        <v>0.17685193236449603</v>
       </c>
       <c r="S5" t="n">
-        <v>0.014070529413632977</v>
+        <v>0.017144660799776435</v>
       </c>
       <c r="T5" t="n">
         <v>6.0</v>
@@ -441,58 +441,58 @@
         <v>6.0</v>
       </c>
       <c r="B6" t="n">
-        <v>233.67</v>
+        <v>237.39</v>
       </c>
       <c r="C6" t="n">
-        <v>0.977142857142857</v>
+        <v>0.9742857142857142</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9549999999999997</v>
+        <v>0.9399999999999995</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9860000000000002</v>
+        <v>0.9880000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>0.956333333333333</v>
+        <v>0.9542087542087542</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9979999999999999</v>
+        <v>0.9969999999999997</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9549999999999997</v>
+        <v>0.9399999999999995</v>
       </c>
       <c r="I6" t="n">
-        <v>0.975</v>
+        <v>0.9797979797979798</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9417979539641941</v>
+        <v>0.9305626598465468</v>
       </c>
       <c r="K6" t="n">
-        <v>151.74001256801523</v>
+        <v>149.4908459749393</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05641674305678028</v>
+        <v>0.05877888856275112</v>
       </c>
       <c r="M6" t="n">
-        <v>0.14381174563233065</v>
+        <v>0.1780931546050317</v>
       </c>
       <c r="N6" t="n">
-        <v>0.05128647999525037</v>
+        <v>0.04773665131518991</v>
       </c>
       <c r="O6" t="n">
-        <v>0.14381174563233065</v>
+        <v>0.1780931546050317</v>
       </c>
       <c r="P6" t="n">
-        <v>0.09288673817044929</v>
+        <v>0.07994019615852481</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.10955424426039284</v>
+        <v>0.10802135702432011</v>
       </c>
       <c r="R6" t="n">
-        <v>0.14436972608831797</v>
+        <v>0.16724484273754414</v>
       </c>
       <c r="S6" t="n">
-        <v>0.014070529413632977</v>
+        <v>0.017144660799776435</v>
       </c>
       <c r="T6" t="n">
         <v>5.0</v>
@@ -508,58 +508,58 @@
         <v>5.0</v>
       </c>
       <c r="B7" t="n">
-        <v>191.31000000000003</v>
+        <v>201.11</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9799999999999999</v>
+        <v>0.9742857142857142</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9599999999999996</v>
+        <v>0.9399999999999995</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9880000000000002</v>
+        <v>0.9880000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9616666666666661</v>
+        <v>0.9542087542087542</v>
       </c>
       <c r="G7" t="n">
         <v>0.9969999999999997</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9599999999999996</v>
+        <v>0.9399999999999995</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9783333333333332</v>
+        <v>0.9797979797979798</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9489590792838871</v>
+        <v>0.930562659846547</v>
       </c>
       <c r="K7" t="n">
-        <v>140.13634738562962</v>
+        <v>135.77111570060055</v>
       </c>
       <c r="L7" t="n">
-        <v>0.05379822123950169</v>
+        <v>0.05877888856275112</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1363299621721455</v>
+        <v>0.1780931546050317</v>
       </c>
       <c r="N7" t="n">
         <v>0.04773665131518991</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1363299621721455</v>
+        <v>0.1780931546050317</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0875370692682335</v>
+        <v>0.07994019615852481</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.10448688155700951</v>
+        <v>0.10802135702432011</v>
       </c>
       <c r="R7" t="n">
-        <v>0.13778447701550256</v>
+        <v>0.16724484273754414</v>
       </c>
       <c r="S7" t="n">
-        <v>0.022270150335366837</v>
+        <v>0.017144660799776435</v>
       </c>
       <c r="T7" t="n">
         <v>4.0</v>
@@ -575,58 +575,58 @@
         <v>4.0</v>
       </c>
       <c r="B8" t="n">
-        <v>145.2100000000001</v>
+        <v>158.12000000000006</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9785714285714282</v>
+        <v>0.9714285714285713</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9599999999999996</v>
+        <v>0.9349999999999997</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9859999999999999</v>
+        <v>0.9860000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9596666666666667</v>
+        <v>0.9491582491582491</v>
       </c>
       <c r="G8" t="n">
         <v>0.9969999999999997</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9599999999999996</v>
+        <v>0.9349999999999997</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9750000000000001</v>
+        <v>0.9747474747474748</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9459156010230177</v>
+        <v>0.923562659846547</v>
       </c>
       <c r="K8" t="n">
-        <v>111.89445739606406</v>
+        <v>106.32210257020643</v>
       </c>
       <c r="L8" t="n">
-        <v>0.055141728150897636</v>
+        <v>0.06420951071078436</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1363299621721455</v>
+        <v>0.18333333333333335</v>
       </c>
       <c r="N8" t="n">
         <v>0.05128647999525037</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1363299621721455</v>
+        <v>0.18333333333333335</v>
       </c>
       <c r="P8" t="n">
-        <v>0.09288673817045161</v>
+        <v>0.09332493998835673</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.10565333057990266</v>
+        <v>0.11716060979917028</v>
       </c>
       <c r="R8" t="n">
-        <v>0.13998934249714917</v>
+        <v>0.17857462092446869</v>
       </c>
       <c r="S8" t="n">
-        <v>0.022270150335366837</v>
+        <v>0.017144660799776435</v>
       </c>
       <c r="T8" t="n">
         <v>3.0</v>
@@ -642,58 +642,58 @@
         <v>3.0</v>
       </c>
       <c r="B9" t="n">
-        <v>112.38000000000004</v>
+        <v>108.69000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9771428571428568</v>
+        <v>0.9728571428571428</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9549999999999997</v>
+        <v>0.9399999999999995</v>
       </c>
       <c r="E9" t="n">
         <v>0.9859999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9563333333333334</v>
+        <v>0.946333333333333</v>
       </c>
       <c r="G9" t="n">
         <v>0.9969999999999997</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9549999999999997</v>
+        <v>0.9399999999999995</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9750000000000001</v>
+        <v>0.9749999999999996</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9417979539641942</v>
+        <v>0.9294450127877237</v>
       </c>
       <c r="K9" t="n">
-        <v>102.57195355732316</v>
+        <v>87.59776010696606</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05641674305678028</v>
+        <v>0.059873432092561664</v>
       </c>
       <c r="M9" t="n">
-        <v>0.14381174563233065</v>
+        <v>0.16329931618554522</v>
       </c>
       <c r="N9" t="n">
         <v>0.05128647999525037</v>
       </c>
       <c r="O9" t="n">
-        <v>0.14381174563233065</v>
+        <v>0.16329931618554522</v>
       </c>
       <c r="P9" t="n">
         <v>0.09288673817045161</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.10955424426039152</v>
+        <v>0.11994153083608858</v>
       </c>
       <c r="R9" t="n">
-        <v>0.14436972608831647</v>
+        <v>0.1561214522212931</v>
       </c>
       <c r="S9" t="n">
-        <v>0.022270150335366837</v>
+        <v>0.017144660799776435</v>
       </c>
       <c r="T9" t="n">
         <v>2.0</v>
@@ -709,58 +709,58 @@
         <v>2.0</v>
       </c>
       <c r="B10" t="n">
-        <v>57.410000000000004</v>
+        <v>69.44000000000004</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9742857142857142</v>
+        <v>0.9714285714285713</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9549999999999997</v>
+        <v>0.9399999999999997</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9819999999999998</v>
+        <v>0.9839999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9523333333333329</v>
+        <v>0.9439999999999998</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9959999999999999</v>
+        <v>0.9965</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9549999999999997</v>
+        <v>0.9399999999999997</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9683333333333329</v>
+        <v>0.9733333333333333</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9357109974424548</v>
+        <v>0.9262404092071607</v>
       </c>
       <c r="K10" t="n">
-        <v>64.70806157136244</v>
+        <v>66.37806014555464</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05877888856275112</v>
+        <v>0.05743073230052987</v>
       </c>
       <c r="M10" t="n">
-        <v>0.14381174563233065</v>
+        <v>0.16329931618554522</v>
       </c>
       <c r="N10" t="n">
-        <v>0.05752469825293261</v>
+        <v>0.054531984868860406</v>
       </c>
       <c r="O10" t="n">
-        <v>0.14381174563233065</v>
+        <v>0.16329931618554522</v>
       </c>
       <c r="P10" t="n">
-        <v>0.10242568683857682</v>
+        <v>0.09088664144809612</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.11154008102257612</v>
+        <v>0.11632996145731278</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1481916106436065</v>
+        <v>0.15013714762777752</v>
       </c>
       <c r="S10" t="n">
-        <v>0.02428783625396042</v>
+        <v>0.017773831632741082</v>
       </c>
       <c r="T10" t="n">
         <v>1.0</v>
@@ -776,58 +776,58 @@
         <v>1.0</v>
       </c>
       <c r="B11" t="n">
-        <v>27.95</v>
+        <v>25.240000000000006</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9742857142857142</v>
+        <v>0.9728571428571431</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9649999999999996</v>
+        <v>0.9349999999999996</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9780000000000001</v>
+        <v>0.9880000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9559999999999997</v>
+        <v>0.9446666666666665</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9894999999999999</v>
+        <v>0.9904999999999998</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9649999999999996</v>
+        <v>0.9349999999999996</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9616666666666663</v>
+        <v>0.98</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9387228014951796</v>
+        <v>0.9282097186700768</v>
       </c>
       <c r="K11" t="n">
-        <v>41.75647896259376</v>
+        <v>35.61100726438159</v>
       </c>
       <c r="L11" t="n">
-        <v>0.06541811670948176</v>
+        <v>0.05632532062909936</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1282161999881213</v>
+        <v>0.16899883449481556</v>
       </c>
       <c r="N11" t="n">
-        <v>0.06901910144037271</v>
+        <v>0.04773665131518991</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1282161999881213</v>
+        <v>0.16899883449481556</v>
       </c>
       <c r="P11" t="n">
-        <v>0.11810085286657016</v>
+        <v>0.079561085525313</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.1125043957240729</v>
+        <v>0.11799104000679657</v>
       </c>
       <c r="R11" t="n">
-        <v>0.15539442752580856</v>
+        <v>0.15057242276567973</v>
       </c>
       <c r="S11" t="n">
-        <v>0.046218082079540944</v>
+        <v>0.04643611882266878</v>
       </c>
       <c r="T11" t="n">
         <v>0.0</v>
